--- a/biology/Médecine/Hippocrate_(revue)/Hippocrate_(revue).xlsx
+++ b/biology/Médecine/Hippocrate_(revue)/Hippocrate_(revue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippocrate, revue d'humanisme médical, fut fondée en 1933 et cessa de paraître en 1951[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippocrate, revue d'humanisme médical, fut fondée en 1933 et cessa de paraître en 1951.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Sa fondation, ses buts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le journal fut fondé par le professeur Maxime Laignel-Lavastine, qui en fut le premier directeur, et par le professeur Maurice Klippel, président des Disciples d'Hippocrate. Le premier numéro parut le 1er mars 1933[2] ; cet humanisme médical étant, selon ses fondateurs, « la pénétration de la nature profonde de l'homme par l'étude de la médecine ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le journal fut fondé par le professeur Maxime Laignel-Lavastine, qui en fut le premier directeur, et par le professeur Maurice Klippel, président des Disciples d'Hippocrate. Le premier numéro parut le 1er mars 1933 ; cet humanisme médical étant, selon ses fondateurs, « la pénétration de la nature profonde de l'homme par l'étude de la médecine ».
 </t>
         </is>
       </c>
